--- a/docs/ExampleMapping_Testautomation.xlsx
+++ b/docs/ExampleMapping_Testautomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telekom-my.sharepoint.de/personal/peter_hegyi_telekom_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{717EA513-8139-4D94-A809-C295C19AB847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A306D5CB-D742-47F6-A1D0-7183BE8A3F87}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{717EA513-8139-4D94-A809-C295C19AB847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B181FB1-FCA9-4207-86E6-4776852D86B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -154,9 +154,6 @@
     <t>Confirming Password matches/not matches</t>
   </si>
   <si>
-    <t>Product Search functionality</t>
-  </si>
-  <si>
     <t>Registration functionality</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
     <t>Searching for a product unavailable in the catalogue</t>
   </si>
   <si>
+    <t>Product Search functionality (US6)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -182,7 +182,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>No search word entered</t>
+      <t>Product consisting of multiple words available in the catalogue</t>
     </r>
     <r>
       <rPr>
@@ -193,9 +193,229 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- navigating to the home page
-- accepting cookies
-- entering no search word at all into the search field
+- user navigates to the home page
+- user accept cookies
+- user searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue
+ =&gt; All products that contain that exact &lt;product_first product_second&gt; name displayed in the search list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Product name consisting of multiple words unavailable in the catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- user navigates to the home page
+- user accept cookies
+- user searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue
+=&gt; A warning message is displayed saying Sajnos nem található olyan termék, amely a “&lt;product_frist product_second” keresési feltételnek megfelelne.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with special character "*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- user navigates to the home page
+- user accept cookies
+- user searches with special character "*"
+=&gt; A warning message is given saying "Sajnos nem található olyan termék, amely a “*” keresési feltételnek megfelelne."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with special character "?"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- user navigates to the home page
+- user accept cookies
+- user searches with special character"?" 
+=&gt; A warning message is given saying "Sajnos nem található olyan termék, amely a “*” keresési feltételnek megfelelne."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with special character " "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- user navigates to the home page
+- user accept cookies
+- user searches with special character " " 
+=&gt; No message is given saying "Sajnos nem található olyan termék, amely a “ ” keresési feltételnek megfelelne."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Searching with case-senstitive search words</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with product name consisting of only one word available in the catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- user navigates to the home page
+- user accept cookies
+- user searches with the exact product name &lt;product&gt; available in the product catalogue
+=&gt; All products that contain that exact &lt;product&gt; name displayed in the search list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with product name consisting of one word unavailable in the catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- user navigates to the home page
+- user accept cookies
+- user searches with the exact product name &lt;product&gt; available in the product catalogue 
+=&gt; A warning message is displayed saying "Sajnos nem található olyan termék, amely a “&lt;product&gt;” keresési feltételnek megfelelne.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with no search word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- user navigates to the home page
+- user accept cookies
+- user searches with no search word at all
 =&gt; No message is given that the search unsuccesful</t>
     </r>
   </si>
@@ -210,7 +430,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Special character "*" entered in the search field</t>
+      <t>Search with exisiting product name only consinsting of uppercase letters</t>
     </r>
     <r>
       <rPr>
@@ -221,10 +441,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- navigating to the home page
-- accepting cookies
-- entering "*"  into the search field
-=&gt; A warning message is given saying "Sajnos nem található olyan termék, amely a “*” keresési feltételnek megfelelne."</t>
+- user navigates to the home page
+- user accept cookies
+- user searches with the exact product name &lt;PRODUCT_FIRST PRODUCT_SECOND&gt; available in the product catalogue 
+=&gt;  All products that contain that exact &lt;PRODUCT_FIRST PRODUCT_SECOND&gt; name displayed in the search list</t>
     </r>
   </si>
   <si>
@@ -238,7 +458,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Special character "?" entered in the search field</t>
+      <t>Search with exisiting product name consinsting of uppercase and lowercase letters</t>
     </r>
     <r>
       <rPr>
@@ -249,10 +469,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- navigating to the home page
-- accepting cookies
-- "?" entering into the search field
-=&gt; A warning message is given saying "Sajnos nem található olyan termék, amely a “*” keresési feltételnek megfelelne."</t>
+- user navigates to the home page
+- user accept cookies
+- user searches with the exact product name &lt;PRODUCT_FIRST product_second&gt; available in the product catalogue 
+=&gt;  All products that contain that exact &lt;PRODUCT_FIRST product_second&gt; name displayed in the search list</t>
     </r>
   </si>
   <si>
@@ -266,7 +486,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Special character " " entered in the search field</t>
+      <t>Search with exisiting product name only consinsting of lowercase letters</t>
     </r>
     <r>
       <rPr>
@@ -277,125 +497,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- navigating to the home page
-- accepting cookies
-- " " entering into the search field
-=&gt; No message is given saying "Sajnos nem található olyan termék, amely a “ ” keresési feltételnek megfelelne."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Product name consisting of one word unavailable in the catalogue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- navigating to the home page
-- accepting cookies
-- entering a product name &lt;product&gt; unavailable in the catalogue into the search field, product name consists of one word
-=&gt; A warning message is displayed saying Sajnos nem található olyan termék, amely a “&lt;product&gt;” keresési feltételnek megfelelne.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Product name consisting of multiple words unavailable in the catalogue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- navigating to the home page
-- accepting cookies
-- entering a product name &lt;product_frist product_second&gt; unavailable in the catalogue into the search field, product name consists of two words
-=&gt; A warning message is displayed saying Sajnos nem található olyan termék, amely a “&lt;product_frist product_second” keresési feltételnek megfelelne.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching with case-senstitive search words </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Product name consisting of only one word available in the catalogue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- navigating to the home page
-- accepting cookies
-- entering the exact product name &lt;product&gt; available in the product catalogue into the search field, product name consists only of one word
-=&gt; All products that contain that exact &lt;product&gt; name displayed in the search list</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Product consisting of multiple words available in the catalogue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- navigating to the home page
-- accepting cookies
-- entering a product name  &lt;product_first product_second&gt; available in the product catalogue into the search field, product name consists of multiple words
-=&gt; =&gt; All products that contain that exact &lt;product_first product_second&gt; name displayed in the search list</t>
+- user navigates to the home page
+- user accept cookies
+- user searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue 
+=&gt;  All products that contain that exact &lt;product_first product_second&gt; name displayed in the search list</t>
     </r>
   </si>
 </sst>
@@ -512,10 +617,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1009,7 +1116,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -1033,7 +1140,7 @@
     </row>
     <row r="2" spans="1:10" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="1"/>
@@ -1047,22 +1154,22 @@
     <row r="4" spans="1:10" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1072,17 +1179,19 @@
     </row>
     <row r="6" spans="1:10" ht="207.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -1096,19 +1205,25 @@
     </row>
     <row r="8" spans="1:10" ht="228.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="1:10" ht="144.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="226.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1151,7 +1266,7 @@
     <row r="1" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="12"/>
       <c r="F2" s="12"/>

--- a/docs/ExampleMapping_Testautomation.xlsx
+++ b/docs/ExampleMapping_Testautomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telekom-my.sharepoint.de/personal/peter_hegyi_telekom_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{717EA513-8139-4D94-A809-C295C19AB847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B181FB1-FCA9-4207-86E6-4776852D86B9}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{717EA513-8139-4D94-A809-C295C19AB847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9A9930-E159-4A5A-9B4A-E83DFD6BDB9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2628" yWindow="936" windowWidth="19260" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Search" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Product consisting of multiple words available in the catalogue</t>
+      <t>Search with no search word</t>
     </r>
     <r>
       <rPr>
@@ -193,9 +193,177 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with no search word at all
+=&gt; No message is given that the search unsuccesful</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with special character "*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with special character "*"
+=&gt; A warning message is given saying "Sajnos nem található olyan termék, amely a “*” keresési feltételnek megfelelne."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with special character "?"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with special character"?" 
+=&gt; A warning message is given saying "Sajnos nem található olyan termék, amely a “*” keresési feltételnek megfelelne."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with special character " "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with special character " " 
+=&gt; No message is given saying "Sajnos nem található olyan termék, amely a “ ” keresési feltételnek megfelelne."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with product name consisting of only one word available in the catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with the exact product name &lt;product&gt; available in the product catalogue
+=&gt; All products that contain that exact &lt;product&gt; name displayed in the search list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with product name consisting of one word unavailable in the catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with the exact product name &lt;product&gt; available in the product catalogue 
+=&gt; A warning message is displayed saying "Sajnos nem található olyan termék, amely a “&lt;product&gt;” keresési feltételnek megfelelne.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search with product name consisting of multiple words available in the catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue
  =&gt; All products that contain that exact &lt;product_first product_second&gt; name displayed in the search list</t>
     </r>
   </si>
@@ -210,7 +378,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Product name consisting of multiple words unavailable in the catalogue</t>
+      <t>Search with product name consisting of multiple words unavailable in the catalogue</t>
     </r>
     <r>
       <rPr>
@@ -221,94 +389,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue
 =&gt; A warning message is displayed saying Sajnos nem található olyan termék, amely a “&lt;product_frist product_second” keresési feltételnek megfelelne.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Search with special character "*"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with special character "*"
-=&gt; A warning message is given saying "Sajnos nem található olyan termék, amely a “*” keresési feltételnek megfelelne."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Search with special character "?"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with special character"?" 
-=&gt; A warning message is given saying "Sajnos nem található olyan termék, amely a “*” keresési feltételnek megfelelne."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Search with special character " "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with special character " " 
-=&gt; No message is given saying "Sajnos nem található olyan termék, amely a “ ” keresési feltételnek megfelelne."</t>
     </r>
   </si>
   <si>
@@ -321,7 +405,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Searching with case-senstitive search words</t>
+      <t>Searching with case-sensitive search words</t>
     </r>
     <r>
       <rPr>
@@ -346,7 +430,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Search with product name consisting of only one word available in the catalogue</t>
+      <t>Search with existing product name only consinsting of lowercase letters</t>
     </r>
     <r>
       <rPr>
@@ -357,10 +441,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with the exact product name &lt;product&gt; available in the product catalogue
-=&gt; All products that contain that exact &lt;product&gt; name displayed in the search list</t>
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue 
+=&gt;  All products that contain that exact &lt;product_first product_second&gt; name displayed in the search list</t>
     </r>
   </si>
   <si>
@@ -374,7 +458,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Search with product name consisting of one word unavailable in the catalogue</t>
+      <t>Search with existing product name consinsting of uppercase and lowercase letters</t>
     </r>
     <r>
       <rPr>
@@ -385,10 +469,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with the exact product name &lt;product&gt; available in the product catalogue 
-=&gt; A warning message is displayed saying "Sajnos nem található olyan termék, amely a “&lt;product&gt;” keresési feltételnek megfelelne.</t>
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with the exact product name &lt;PRODUCT_FIRST product_second&gt; available in the product catalogue 
+=&gt;  All products that contain that exact &lt;PRODUCT_FIRST product_second&gt; name displayed in the search list</t>
     </r>
   </si>
   <si>
@@ -402,7 +486,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Search with no search word</t>
+      <t>Search with existing product name only consisting of uppercase letters</t>
     </r>
     <r>
       <rPr>
@@ -413,94 +497,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with no search word at all
-=&gt; No message is given that the search unsuccesful</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Search with exisiting product name only consinsting of uppercase letters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with the exact product name &lt;PRODUCT_FIRST PRODUCT_SECOND&gt; available in the product catalogue 
+- customer navigates to the home page
+- customer accept cookies
+- customer searches with the exact product name &lt;PRODUCT_FIRST PRODUCT_SECOND&gt; available in the product catalogue 
 =&gt;  All products that contain that exact &lt;PRODUCT_FIRST PRODUCT_SECOND&gt; name displayed in the search list</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Search with exisiting product name consinsting of uppercase and lowercase letters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with the exact product name &lt;PRODUCT_FIRST product_second&gt; available in the product catalogue 
-=&gt;  All products that contain that exact &lt;PRODUCT_FIRST product_second&gt; name displayed in the search list</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Search with exisiting product name only consinsting of lowercase letters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- user navigates to the home page
-- user accept cookies
-- user searches with the exact product name &lt;product_first product_second&gt; available in the product catalogue 
-=&gt;  All products that contain that exact &lt;product_first product_second&gt; name displayed in the search list</t>
     </r>
   </si>
 </sst>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -1161,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="18" t="s">
@@ -1179,19 +1179,19 @@
     </row>
     <row r="6" spans="1:10" ht="207.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -1205,25 +1205,25 @@
     </row>
     <row r="8" spans="1:10" ht="228.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="10" spans="1:10" ht="226.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
